--- a/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoAGOSTO23.xlsx
+++ b/Gestão do Projeto/Indicadores/IndicadoresPlanoTrabalhoAGOSTO23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997FCE4-624F-214D-ABB9-58A2EE08C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774FD67-144F-CD45-A7BE-67527F459E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="760" windowWidth="26840" windowHeight="17860" xr2:uid="{BBEB64F3-A0FD-8443-B46C-44F3CC52CE04}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="26840" windowHeight="17860" xr2:uid="{BBEB64F3-A0FD-8443-B46C-44F3CC52CE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Indicadores de resultado do projeto</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Trabalho para Oxford Digital está pronto mas prazo foi estendido para 1/dez. Vamos aguardar resultado do Connecthaton LACPASS para completar o trabalho com os resultados.</t>
+  </si>
+  <si>
+    <t>OUTUBRO 23</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -400,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01C209F-BEDB-6A41-9AE1-7109A510D013}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,7 +818,7 @@
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -822,8 +831,9 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="3"/>
@@ -848,8 +858,11 @@
       <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K2" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="9"/>
@@ -884,8 +898,9 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -921,8 +936,12 @@
         <f>'[2]Abril-23'!$T$2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="K5" s="11">
+        <f>'[2]Abril-23'!$T$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -953,8 +972,11 @@
       <c r="J6" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+      <c r="K6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -987,8 +1009,11 @@
       <c r="J7" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -1019,8 +1044,11 @@
       <c r="J8" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1051,8 +1079,11 @@
       <c r="J9" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1083,8 +1114,11 @@
       <c r="J10" s="14">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1115,24 +1149,33 @@
       <c r="J11" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="27"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K2:K4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H2:H4"/>
